--- a/FUNKCE/FUNKCE6SLOUPEC/ALL-LIKEE-1-2048.xlsx
+++ b/FUNKCE/FUNKCE6SLOUPEC/ALL-LIKEE-1-2048.xlsx
@@ -20,19 +20,763 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="146">
   <si>
     <t>seq</t>
   </si>
   <si>
     <t>LIKEE</t>
+  </si>
+  <si>
+    <r>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>y = 8.413280178·10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> - 5.305512854·10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> + 9.584964437·10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> - 2991.863661 x + 376904280.1</t>
+    </r>
+  </si>
+  <si>
+    <t>do 30k</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>  </t>
+  </si>
+  <si>
+    <t>Calculated y</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>1. </t>
+  </si>
+  <si>
+    <t> 376614625.7 </t>
+  </si>
+  <si>
+    <t> 52604332.29 </t>
+  </si>
+  <si>
+    <t>2. </t>
+  </si>
+  <si>
+    <t> 16970218.29 </t>
+  </si>
+  <si>
+    <t>3. </t>
+  </si>
+  <si>
+    <t> 10307171.71 </t>
+  </si>
+  <si>
+    <t>4. </t>
+  </si>
+  <si>
+    <t> 27808474.71 </t>
+  </si>
+  <si>
+    <t>5. </t>
+  </si>
+  <si>
+    <t> 56246475.71 </t>
+  </si>
+  <si>
+    <t>6. </t>
+  </si>
+  <si>
+    <t> 375641393.1 </t>
+  </si>
+  <si>
+    <t> 13160017.05 </t>
+  </si>
+  <si>
+    <t>7. </t>
+  </si>
+  <si>
+    <t> 29579766.05 </t>
+  </si>
+  <si>
+    <t>8. </t>
+  </si>
+  <si>
+    <t> 29012475.05 </t>
+  </si>
+  <si>
+    <t>9. </t>
+  </si>
+  <si>
+    <t> 10793057.95 </t>
+  </si>
+  <si>
+    <t>10. </t>
+  </si>
+  <si>
+    <t> 4614821.945 </t>
+  </si>
+  <si>
+    <t>11. </t>
+  </si>
+  <si>
+    <t> 374818699.1 </t>
+  </si>
+  <si>
+    <t> 47819791.94 </t>
+  </si>
+  <si>
+    <t>12. </t>
+  </si>
+  <si>
+    <t> 7465786.935 </t>
+  </si>
+  <si>
+    <t>13. </t>
+  </si>
+  <si>
+    <t> 43059013.94 </t>
+  </si>
+  <si>
+    <t>14. </t>
+  </si>
+  <si>
+    <t> 22127254.94 </t>
+  </si>
+  <si>
+    <t>15. </t>
+  </si>
+  <si>
+    <t> 8571528.935 </t>
+  </si>
+  <si>
+    <t>16. </t>
+  </si>
+  <si>
+    <t> 374343558.8 </t>
+  </si>
+  <si>
+    <t> 11719565.76 </t>
+  </si>
+  <si>
+    <t>17. </t>
+  </si>
+  <si>
+    <t> 960949.7554 </t>
+  </si>
+  <si>
+    <t>18. </t>
+  </si>
+  <si>
+    <t> 35428519.24 </t>
+  </si>
+  <si>
+    <t>19. </t>
+  </si>
+  <si>
+    <t> 686873.7554 </t>
+  </si>
+  <si>
+    <t>20. </t>
+  </si>
+  <si>
+    <t> 62254522.76 </t>
+  </si>
+  <si>
+    <t>21. </t>
+  </si>
+  <si>
+    <t> 379801311.8 </t>
+  </si>
+  <si>
+    <t> 19418143.81 </t>
+  </si>
+  <si>
+    <t>22. </t>
+  </si>
+  <si>
+    <t> 49712584.19 </t>
+  </si>
+  <si>
+    <t>23. </t>
+  </si>
+  <si>
+    <t> 5207167.186 </t>
+  </si>
+  <si>
+    <t>24. </t>
+  </si>
+  <si>
+    <t> 34559729.81 </t>
+  </si>
+  <si>
+    <t>25. </t>
+  </si>
+  <si>
+    <t> 7829375.814 </t>
+  </si>
+  <si>
+    <t>26. </t>
+  </si>
+  <si>
+    <t> 388660109.7 </t>
+  </si>
+  <si>
+    <t> 14491524.66 </t>
+  </si>
+  <si>
+    <t>27. </t>
+  </si>
+  <si>
+    <t> 25635463.66 </t>
+  </si>
+  <si>
+    <t>28. </t>
+  </si>
+  <si>
+    <t> 8459779.661 </t>
+  </si>
+  <si>
+    <t>29. </t>
+  </si>
+  <si>
+    <t> 4904917.339 </t>
+  </si>
+  <si>
+    <t>30. </t>
+  </si>
+  <si>
+    <t> 28003759.34 </t>
+  </si>
+  <si>
+    <t>31. </t>
+  </si>
+  <si>
+    <t> 398193439.5 </t>
+  </si>
+  <si>
+    <t> 25189220.52 </t>
+  </si>
+  <si>
+    <t>32. </t>
+  </si>
+  <si>
+    <t> 34204045.52 </t>
+  </si>
+  <si>
+    <t>33. </t>
+  </si>
+  <si>
+    <t> 21182653.52 </t>
+  </si>
+  <si>
+    <t>34. </t>
+  </si>
+  <si>
+    <t> 37566681.48 </t>
+  </si>
+  <si>
+    <t>35. </t>
+  </si>
+  <si>
+    <t> 26470233.48 </t>
+  </si>
+  <si>
+    <t>36. </t>
+  </si>
+  <si>
+    <t> 410637038.9 </t>
+  </si>
+  <si>
+    <t> 27701360.14 </t>
+  </si>
+  <si>
+    <t>37. </t>
+  </si>
+  <si>
+    <t> 5499603.137 </t>
+  </si>
+  <si>
+    <t>38. </t>
+  </si>
+  <si>
+    <t> 20100188.14 </t>
+  </si>
+  <si>
+    <t>39. </t>
+  </si>
+  <si>
+    <t> 60388638.86 </t>
+  </si>
+  <si>
+    <t>40. </t>
+  </si>
+  <si>
+    <t> 5150391.137 </t>
+  </si>
+  <si>
+    <t>41. </t>
+  </si>
+  <si>
+    <t> 398782393.4 </t>
+  </si>
+  <si>
+    <t> 5343637.396 </t>
+  </si>
+  <si>
+    <t>42. </t>
+  </si>
+  <si>
+    <t> 17304881.6 </t>
+  </si>
+  <si>
+    <t>43. </t>
+  </si>
+  <si>
+    <t> 7304961.604 </t>
+  </si>
+  <si>
+    <t>44. </t>
+  </si>
+  <si>
+    <t> 5767234.396 </t>
+  </si>
+  <si>
+    <t>45. </t>
+  </si>
+  <si>
+    <t> 13253324.4 </t>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>y = 1.111638274·10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> - 5.510163743·10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> + 8.107319807·10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> + 121.6715031 x + 339723127.2</t>
+    </r>
+  </si>
+  <si>
+    <t> 402362135.4 </t>
+  </si>
+  <si>
+    <t> 8923379.436 </t>
+  </si>
+  <si>
+    <t> 13725139.56 </t>
+  </si>
+  <si>
+    <t> 3725219.564 </t>
+  </si>
+  <si>
+    <t> 9346976.436 </t>
+  </si>
+  <si>
+    <t> 16833066.44 </t>
+  </si>
+  <si>
+    <t> 486560389.9 </t>
+  </si>
+  <si>
+    <t> 39529631.07 </t>
+  </si>
+  <si>
+    <t> 25342260.07 </t>
+  </si>
+  <si>
+    <t> 4073998.072 </t>
+  </si>
+  <si>
+    <t> 21673505.93 </t>
+  </si>
+  <si>
+    <t> 8186480.072 </t>
+  </si>
+  <si>
+    <t> 607598125.9 </t>
+  </si>
+  <si>
+    <t> 13825475.88 </t>
+  </si>
+  <si>
+    <t> 25637058.88 </t>
+  </si>
+  <si>
+    <t> 19066313.12 </t>
+  </si>
+  <si>
+    <t> 328805.8752 </t>
+  </si>
+  <si>
+    <t> 46881967.88 </t>
+  </si>
+  <si>
+    <t> 722769711.2 </t>
+  </si>
+  <si>
+    <t> 70401744.8 </t>
+  </si>
+  <si>
+    <t> 8599131.8 </t>
+  </si>
+  <si>
+    <t> 48761465.2 </t>
+  </si>
+  <si>
+    <t> 6362421.2 </t>
+  </si>
+  <si>
+    <t> 7813788.8 </t>
+  </si>
+  <si>
+    <t> 977475593.8 </t>
+  </si>
+  <si>
+    <t> 41260661.81 </t>
+  </si>
+  <si>
+    <t> 16395088.19 </t>
+  </si>
+  <si>
+    <t> 39695978.81 </t>
+  </si>
+  <si>
+    <t> 1968854.187 </t>
+  </si>
+  <si>
+    <t> 59982869.19 </t>
+  </si>
+  <si>
+    <t> 1169922040 </t>
+  </si>
+  <si>
+    <t> 24734845.94 </t>
+  </si>
+  <si>
+    <t> 7825124.937 </t>
+  </si>
+  <si>
+    <t> 23592976.06 </t>
+  </si>
+  <si>
+    <t> 45975599.94 </t>
+  </si>
+  <si>
+    <t> 54222350.06 </t>
+  </si>
+  <si>
+    <t>Result:  y = 1.1116382</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +786,31 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="7.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -69,10 +838,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -3027,10 +3798,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC5D7D-664E-4DDA-98BE-FB74C2F2F93F}">
-  <dimension ref="B1:BS10"/>
+  <sheetPr codeName="List1"/>
+  <dimension ref="B1:BS121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:BS2"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3462,12 +4234,1618 @@
         <v>1115699690</v>
       </c>
     </row>
+    <row r="4" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>429218958</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>22263113.767017778</v>
+      </c>
+    </row>
+    <row r="6" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>393584844</v>
+      </c>
+    </row>
     <row r="7" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>366307454</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="H7" s="2"/>
     </row>
+    <row r="8" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>348806151</v>
+      </c>
+    </row>
+    <row r="9" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>320368150</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" s="1">
+        <v>23823072.640306663</v>
+      </c>
+    </row>
     <row r="10" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>500</v>
+      </c>
+      <c r="C10">
+        <v>362481376</v>
+      </c>
       <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>500</v>
+      </c>
+      <c r="C11">
+        <v>346061627</v>
+      </c>
+    </row>
+    <row r="12" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>500</v>
+      </c>
+      <c r="C12">
+        <v>346628918</v>
+      </c>
+    </row>
+    <row r="13" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>500</v>
+      </c>
+      <c r="C13">
+        <v>386434451</v>
+      </c>
+    </row>
+    <row r="14" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>500</v>
+      </c>
+      <c r="C14">
+        <v>380256215</v>
+      </c>
+    </row>
+    <row r="15" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C15">
+        <v>422638491</v>
+      </c>
+    </row>
+    <row r="16" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C16">
+        <v>382284486</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C17">
+        <v>417877713</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>396945954</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C19">
+        <v>383390228</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C20">
+        <v>362623993</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C21">
+        <v>373382609</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C22">
+        <v>409772078</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C23">
+        <v>373656685</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C24">
+        <v>312089036</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C25">
+        <v>360383168</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C26">
+        <v>429513896</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C27">
+        <v>385008479</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C28">
+        <v>345241582</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C29">
+        <v>371971936</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C30">
+        <v>374168585</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C31">
+        <v>363024646</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C32">
+        <v>380200330</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C33">
+        <v>393565027</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C34">
+        <v>416663869</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C35">
+        <v>423382660</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C36">
+        <v>432397485</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C37">
+        <v>419376093</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C38">
+        <v>360626758</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C39">
+        <v>371723206</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C40">
+        <v>438338399</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N40" s="1">
+        <v>52604332.289999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C41">
+        <v>416136642</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="1">
+        <v>16970218.289999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C42">
+        <v>430737227</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" s="1">
+        <v>10307171.710000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C43">
+        <v>350248400</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="1">
+        <v>27808474.710000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C44">
+        <v>415787430</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="1">
+        <v>56246475.710000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C45">
+        <v>393438756</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" s="1">
+        <v>13160017.050000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C46">
+        <v>416087275</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="1">
+        <v>29579766.050000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C47">
+        <v>406087355</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" s="1">
+        <v>29012475.050000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C48">
+        <v>393015159</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N48" s="1">
+        <v>10793057.949999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C49">
+        <v>385529069</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="1">
+        <v>4614821.9450000003</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C50">
+        <v>526090021</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N50" s="1">
+        <v>47819791.939999998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C51">
+        <v>511902650</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N51" s="1">
+        <v>7465786.9349999996</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C52">
+        <v>490634388</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" s="1">
+        <v>43059013.939999998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C53">
+        <v>464886884</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N53" s="1">
+        <v>22127254.940000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C54">
+        <v>494746870</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N54" s="1">
+        <v>8571528.9350000005</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>75000</v>
+      </c>
+      <c r="C55">
+        <v>593772650</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N55" s="1">
+        <v>11719565.76</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>75000</v>
+      </c>
+      <c r="C56">
+        <v>581961067</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N56" s="1">
+        <v>960949.75540000002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>75000</v>
+      </c>
+      <c r="C57">
+        <v>626664439</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N57" s="1">
+        <v>35428519.240000002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>75000</v>
+      </c>
+      <c r="C58">
+        <v>607269320</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N58" s="1">
+        <v>686873.75540000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>75000</v>
+      </c>
+      <c r="C59">
+        <v>560716158</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N59" s="1">
+        <v>62254522.759999998</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C60">
+        <v>793171456</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N60" s="1">
+        <v>19418143.809999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C61">
+        <v>731368843</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N61" s="1">
+        <v>49712584.189999998</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C62">
+        <v>674008246</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N62" s="1">
+        <v>5207167.1859999998</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C63">
+        <v>716407290</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N63" s="1">
+        <v>34559729.810000002</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C64">
+        <v>730583500</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N64" s="1">
+        <v>7829375.8140000002</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C65">
+        <v>936214932</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N65" s="1">
+        <v>14491524.66</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C66">
+        <v>993870682</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N66" s="1">
+        <v>25635463.66</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C67">
+        <v>937779615</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N67" s="1">
+        <v>8459779.6610000003</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C68">
+        <v>979444448</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N68" s="1">
+        <v>4904917.3389999997</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C69">
+        <v>1037458463</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N69" s="1">
+        <v>28003759.34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C70">
+        <v>1194656886</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N70" s="1">
+        <v>25189220.52</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C71">
+        <v>1177747165</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N71" s="1">
+        <v>34204045.520000003</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C72">
+        <v>1146329064</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N72" s="1">
+        <v>21182653.52</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C73">
+        <v>1215897640</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N73" s="1">
+        <v>37566681.479999997</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C74">
+        <v>1115699690</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N74" s="1">
+        <v>26470233.48</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N75" s="1">
+        <v>27701360.140000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N76" s="1">
+        <v>5499603.1370000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N77" s="1">
+        <v>20100188.140000001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N78" s="1">
+        <v>60388638.859999999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F79" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N79" s="1">
+        <v>5150391.1370000001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N80" s="1">
+        <v>5343637.3959999997</v>
+      </c>
+    </row>
+    <row r="81" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F81" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N81" s="1">
+        <v>17304881.600000001</v>
+      </c>
+    </row>
+    <row r="82" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N82" s="1">
+        <v>7304961.6040000003</v>
+      </c>
+    </row>
+    <row r="83" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N83" s="1">
+        <v>5767234.3959999997</v>
+      </c>
+    </row>
+    <row r="84" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F84" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N84" s="1">
+        <v>13253324.4</v>
+      </c>
+    </row>
+    <row r="85" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="N85" s="1">
+        <f>AVERAGE(N40:N84)</f>
+        <v>22263113.767017778</v>
+      </c>
+    </row>
+    <row r="88" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O88" s="1">
+        <v>8923379.4360000007</v>
+      </c>
+    </row>
+    <row r="89" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O89" s="1">
+        <v>13725139.560000001</v>
+      </c>
+    </row>
+    <row r="90" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O90" s="1">
+        <v>3725219.5639999998</v>
+      </c>
+    </row>
+    <row r="91" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O91" s="1">
+        <v>9346976.4360000007</v>
+      </c>
+    </row>
+    <row r="92" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O92" s="1">
+        <v>16833066.440000001</v>
+      </c>
+    </row>
+    <row r="93" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O93" s="1">
+        <v>39529631.07</v>
+      </c>
+    </row>
+    <row r="94" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O94" s="1">
+        <v>25342260.07</v>
+      </c>
+    </row>
+    <row r="95" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O95" s="1">
+        <v>4073998.0720000002</v>
+      </c>
+    </row>
+    <row r="96" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O96" s="1">
+        <v>21673505.93</v>
+      </c>
+    </row>
+    <row r="97" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O97" s="1">
+        <v>8186480.0719999997</v>
+      </c>
+    </row>
+    <row r="98" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O98" s="1">
+        <v>13825475.880000001</v>
+      </c>
+    </row>
+    <row r="99" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O99" s="1">
+        <v>25637058.879999999</v>
+      </c>
+    </row>
+    <row r="100" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O100" s="1">
+        <v>19066313.120000001</v>
+      </c>
+    </row>
+    <row r="101" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O101" s="1">
+        <v>328805.87520000001</v>
+      </c>
+    </row>
+    <row r="102" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E102" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O102" s="1">
+        <v>46881967.880000003</v>
+      </c>
+    </row>
+    <row r="103" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E103" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O103" s="1">
+        <v>70401744.799999997</v>
+      </c>
+    </row>
+    <row r="104" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O104" s="1">
+        <v>8599131.8000000007</v>
+      </c>
+    </row>
+    <row r="105" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E105" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O105" s="1">
+        <v>48761465.200000003</v>
+      </c>
+    </row>
+    <row r="106" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E106" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O106" s="1">
+        <v>6362421.2000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E107" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O107" s="1">
+        <v>7813788.7999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E108" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O108" s="1">
+        <v>41260661.810000002</v>
+      </c>
+    </row>
+    <row r="109" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E109" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O109" s="1">
+        <v>16395088.189999999</v>
+      </c>
+    </row>
+    <row r="110" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E110" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O110" s="1">
+        <v>39695978.810000002</v>
+      </c>
+    </row>
+    <row r="111" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E111" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O111" s="1">
+        <v>1968854.1869999999</v>
+      </c>
+    </row>
+    <row r="112" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E112" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O112" s="1">
+        <v>59982869.189999998</v>
+      </c>
+    </row>
+    <row r="113" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E113" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O113" s="1">
+        <v>24734845.940000001</v>
+      </c>
+    </row>
+    <row r="114" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E114" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O114" s="1">
+        <v>7825124.9369999999</v>
+      </c>
+    </row>
+    <row r="115" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E115" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O115" s="1">
+        <v>23592976.059999999</v>
+      </c>
+    </row>
+    <row r="116" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E116" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O116" s="1">
+        <v>45975599.939999998</v>
+      </c>
+    </row>
+    <row r="117" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E117" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O117" s="1">
+        <v>54222350.060000002</v>
+      </c>
+    </row>
+    <row r="118" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E118" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O118" s="1">
+        <f>AVERAGE(O88:O117)</f>
+        <v>23823072.640306663</v>
+      </c>
+    </row>
+    <row r="121" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E121" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/FUNKCE/FUNKCE6SLOUPEC/ALL-LIKEE-1-2048.xlsx
+++ b/FUNKCE/FUNKCE6SLOUPEC/ALL-LIKEE-1-2048.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="148">
   <si>
     <t>seq</t>
   </si>
@@ -770,6 +770,12 @@
   </si>
   <si>
     <t>Result:  y = 1.1116382</t>
+  </si>
+  <si>
+    <t>8,413280178*10^(-10)*B1^4-5,305512854*10^(-5)*B1^3+9,584964437*10^(-1)*B1^2-2991,863661)*B1+376904280,1</t>
+  </si>
+  <si>
+    <t>1,111638274*10^(-12)*B1^4-5,510163743*10^(-7)*B1^3+8,107319807*10^(-2)*B1^2+121,6715031)*B1+339723127,2</t>
   </si>
 </sst>
 </file>
@@ -3802,7 +3808,7 @@
   <dimension ref="B1:BS121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4234,6 +4240,12 @@
         <v>1115699690</v>
       </c>
     </row>
+    <row r="3" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <f>8.413280178*10^(-10)*B1^4-5.305512854*10^(-5)*B1^3+9.584964437*10^(-1)*B1^2-2991.863661*B1+376904280.1</f>
+        <v>376614625.72734129</v>
+      </c>
+    </row>
     <row r="4" spans="2:71" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
         <v>3</v>
@@ -4260,6 +4272,9 @@
       <c r="C6">
         <v>393584844</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="7" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -4300,7 +4315,9 @@
       <c r="C10">
         <v>362481376</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B11" s="1">

--- a/FUNKCE/FUNKCE6SLOUPEC/ALL-LIKEE-1-2048.xlsx
+++ b/FUNKCE/FUNKCE6SLOUPEC/ALL-LIKEE-1-2048.xlsx
@@ -3805,10 +3805,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC5D7D-664E-4DDA-98BE-FB74C2F2F93F}">
   <sheetPr codeName="List1"/>
-  <dimension ref="B1:BS121"/>
+  <dimension ref="B1:BT121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3816,7 +3816,7 @@
     <col min="1" max="16384" width="13.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>100</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="2" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>429218958</v>
       </c>
@@ -4240,18 +4240,298 @@
         <v>1115699690</v>
       </c>
     </row>
-    <row r="3" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <f>8.413280178*10^(-10)*B1^4-5.305512854*10^(-5)*B1^3+9.584964437*10^(-1)*B1^2-2991.863661*B1+376904280.1</f>
-        <v>376614625.72734129</v>
-      </c>
-    </row>
-    <row r="4" spans="2:71" x14ac:dyDescent="0.25">
+        <f>1.111638274*10^(-12)*B1^4-5.510163743*10^(-7)*B1^3+8.107319807*10^(-2)*B1^2+121.6715031*B1+339723127.2</f>
+        <v>339736104.53138548</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:BN3" si="0">1.111638274*10^(-12)*C1^4-5.510163743*10^(-7)*C1^3+8.107319807*10^(-2)*C1^2+121.6715031*C1+339723127.2</f>
+        <v>339736104.53138548</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>339736104.53138548</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>339736104.53138548</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>339736104.53138548</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>339804162.44349808</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>339804162.44349808</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>339804162.44349808</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>339804162.44349808</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
+        <v>339804162.44349808</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>339925321.99643397</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>339925321.99643397</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>339925321.99643397</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>339925321.99643397</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>339925321.99643397</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>340286372.65369797</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="0"/>
+        <v>340286372.65369797</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="0"/>
+        <v>340286372.65369797</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="0"/>
+        <v>340286372.65369797</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" si="0"/>
+        <v>340286372.65369797</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" si="0"/>
+        <v>342290132.39438373</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" si="0"/>
+        <v>342290132.39438373</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" si="0"/>
+        <v>342290132.39438373</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" si="0"/>
+        <v>342290132.39438373</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" si="0"/>
+        <v>342290132.39438373</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" si="0"/>
+        <v>344967088.12475598</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" si="0"/>
+        <v>344967088.12475598</v>
+      </c>
+      <c r="AC3" s="1">
+        <f t="shared" si="0"/>
+        <v>344967088.12475598</v>
+      </c>
+      <c r="AD3" s="1">
+        <f t="shared" si="0"/>
+        <v>344967088.12475598</v>
+      </c>
+      <c r="AE3" s="1">
+        <f t="shared" si="0"/>
+        <v>344967088.12475598</v>
+      </c>
+      <c r="AF3" s="1">
+        <f t="shared" si="0"/>
+        <v>348507262.04644001</v>
+      </c>
+      <c r="AG3" s="1">
+        <f t="shared" si="0"/>
+        <v>348507262.04644001</v>
+      </c>
+      <c r="AH3" s="1">
+        <f t="shared" si="0"/>
+        <v>348507262.04644001</v>
+      </c>
+      <c r="AI3" s="1">
+        <f t="shared" si="0"/>
+        <v>348507262.04644001</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f t="shared" si="0"/>
+        <v>348507262.04644001</v>
+      </c>
+      <c r="AK3" s="1">
+        <f t="shared" si="0"/>
+        <v>370355567.61943996</v>
+      </c>
+      <c r="AL3" s="1">
+        <f t="shared" si="0"/>
+        <v>370355567.61943996</v>
+      </c>
+      <c r="AM3" s="1">
+        <f t="shared" si="0"/>
+        <v>370355567.61943996</v>
+      </c>
+      <c r="AN3" s="1">
+        <f t="shared" si="0"/>
+        <v>370355567.61943996</v>
+      </c>
+      <c r="AO3" s="1">
+        <f t="shared" si="0"/>
+        <v>370355567.61943996</v>
+      </c>
+      <c r="AP3" s="1">
+        <f t="shared" si="0"/>
+        <v>402362135.45183998</v>
+      </c>
+      <c r="AQ3" s="1">
+        <f t="shared" si="0"/>
+        <v>402362135.45183998</v>
+      </c>
+      <c r="AR3" s="1">
+        <f t="shared" si="0"/>
+        <v>402362135.45183998</v>
+      </c>
+      <c r="AS3" s="1">
+        <f t="shared" si="0"/>
+        <v>402362135.45183998</v>
+      </c>
+      <c r="AT3" s="1">
+        <f t="shared" si="0"/>
+        <v>402362135.45183998</v>
+      </c>
+      <c r="AU3" s="1">
+        <f t="shared" si="0"/>
+        <v>486560389.95500004</v>
+      </c>
+      <c r="AV3" s="1">
+        <f t="shared" si="0"/>
+        <v>486560389.95500004</v>
+      </c>
+      <c r="AW3" s="1">
+        <f t="shared" si="0"/>
+        <v>486560389.95500004</v>
+      </c>
+      <c r="AX3" s="1">
+        <f t="shared" si="0"/>
+        <v>486560389.95500004</v>
+      </c>
+      <c r="AY3" s="1">
+        <f t="shared" si="0"/>
+        <v>486560389.95500004</v>
+      </c>
+      <c r="AZ3" s="1">
+        <f t="shared" si="0"/>
+        <v>607598125.93171883</v>
+      </c>
+      <c r="BA3" s="1">
+        <f t="shared" si="0"/>
+        <v>607598125.93171883</v>
+      </c>
+      <c r="BB3" s="1">
+        <f t="shared" si="0"/>
+        <v>607598125.93171883</v>
+      </c>
+      <c r="BC3" s="1">
+        <f t="shared" si="0"/>
+        <v>607598125.93171883</v>
+      </c>
+      <c r="BD3" s="1">
+        <f t="shared" si="0"/>
+        <v>607598125.93171883</v>
+      </c>
+      <c r="BE3" s="1">
+        <f t="shared" si="0"/>
+        <v>722769711.31000006</v>
+      </c>
+      <c r="BF3" s="1">
+        <f t="shared" si="0"/>
+        <v>722769711.31000006</v>
+      </c>
+      <c r="BG3" s="1">
+        <f t="shared" si="0"/>
+        <v>722769711.31000006</v>
+      </c>
+      <c r="BH3" s="1">
+        <f t="shared" si="0"/>
+        <v>722769711.31000006</v>
+      </c>
+      <c r="BI3" s="1">
+        <f t="shared" si="0"/>
+        <v>722769711.31000006</v>
+      </c>
+      <c r="BJ3" s="1">
+        <f t="shared" si="0"/>
+        <v>977475594.62000012</v>
+      </c>
+      <c r="BK3" s="1">
+        <f t="shared" si="0"/>
+        <v>977475594.62000012</v>
+      </c>
+      <c r="BL3" s="1">
+        <f t="shared" si="0"/>
+        <v>977475594.62000012</v>
+      </c>
+      <c r="BM3" s="1">
+        <f t="shared" si="0"/>
+        <v>977475594.62000012</v>
+      </c>
+      <c r="BN3" s="1">
+        <f t="shared" si="0"/>
+        <v>977475594.62000012</v>
+      </c>
+      <c r="BO3" s="1">
+        <f t="shared" ref="BO3:BT3" si="1">1.111638274*10^(-12)*BO1^4-5.510163743*10^(-7)*BO1^3+8.107319807*10^(-2)*BO1^2+121.6715031*BO1+339723127.2</f>
+        <v>1169922041.7250018</v>
+      </c>
+      <c r="BP3" s="1">
+        <f t="shared" si="1"/>
+        <v>1169922041.7250018</v>
+      </c>
+      <c r="BQ3" s="1">
+        <f t="shared" si="1"/>
+        <v>1169922041.7250018</v>
+      </c>
+      <c r="BR3" s="1">
+        <f t="shared" si="1"/>
+        <v>1169922041.7250018</v>
+      </c>
+      <c r="BS3" s="1">
+        <f t="shared" si="1"/>
+        <v>1169922041.7250018</v>
+      </c>
+      <c r="BT3" s="1">
+        <f t="shared" si="1"/>
+        <v>339723127.19999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:72" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>100</v>
       </c>
@@ -4265,7 +4545,7 @@
         <v>22263113.767017778</v>
       </c>
     </row>
-    <row r="6" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>100</v>
       </c>
@@ -4276,7 +4556,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>100</v>
       </c>
@@ -4286,7 +4566,7 @@
       <c r="F7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>100</v>
       </c>
@@ -4294,7 +4574,7 @@
         <v>348806151</v>
       </c>
     </row>
-    <row r="9" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>100</v>
       </c>
@@ -4308,7 +4588,7 @@
         <v>23823072.640306663</v>
       </c>
     </row>
-    <row r="10" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>500</v>
       </c>
@@ -4319,7 +4599,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>500</v>
       </c>
@@ -4327,7 +4607,7 @@
         <v>346061627</v>
       </c>
     </row>
-    <row r="12" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>500</v>
       </c>
@@ -4335,7 +4615,7 @@
         <v>346628918</v>
       </c>
     </row>
-    <row r="13" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>500</v>
       </c>
@@ -4343,7 +4623,7 @@
         <v>386434451</v>
       </c>
     </row>
-    <row r="14" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>500</v>
       </c>
@@ -4351,7 +4631,7 @@
         <v>380256215</v>
       </c>
     </row>
-    <row r="15" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>1000</v>
       </c>
@@ -4359,7 +4639,7 @@
         <v>422638491</v>
       </c>
     </row>
-    <row r="16" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>1000</v>
       </c>
